--- a/src/test/resources/TestData/LMS_valid_data.xlsx
+++ b/src/test/resources/TestData/LMS_valid_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LMS_UI\TEAM5_Validation_Vanguards_LMS_Project\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05C7720-1932-4799-98E0-FBEB5640447F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7F94EB-6A33-4E1B-9BC6-930F11C18DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,22 +74,22 @@
     <t>Functional Testing</t>
   </si>
   <si>
-    <t>AWSProgram1</t>
-  </si>
-  <si>
-    <t>WebTestingProgram1</t>
-  </si>
-  <si>
-    <t>FunctionalTestingProgram1</t>
-  </si>
-  <si>
-    <t>Data Batch QA</t>
-  </si>
-  <si>
-    <t>Test Batch QA</t>
-  </si>
-  <si>
-    <t>Advanced data QA</t>
+    <t>AWSProgram2</t>
+  </si>
+  <si>
+    <t>WebTestingProgram2</t>
+  </si>
+  <si>
+    <t>FunctionalTestingProgram2</t>
+  </si>
+  <si>
+    <t>Data Batch QA1</t>
+  </si>
+  <si>
+    <t>Test Batch QA1</t>
+  </si>
+  <si>
+    <t>Advanced data QA1</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1057,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
